--- a/plots/countries/plot data/Italy.xlsx
+++ b/plots/countries/plot data/Italy.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>37.952780925422</v>
+        <v>38.2328366447223</v>
       </c>
     </row>
     <row r="3">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>137.620139891672</v>
+        <v>137.667273491672</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>102.189861232032</v>
+        <v>102.190524375565</v>
       </c>
     </row>
     <row r="8">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.6431492896349</v>
+        <v>-3.63289146396066</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>38.8143141273702</v>
+        <v>39.098886941432</v>
       </c>
     </row>
     <row r="12">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>131.981142965018</v>
+        <v>132.035174165018</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>104.815708121984</v>
+        <v>104.816358840758</v>
       </c>
     </row>
     <row r="17">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-18.6426410930369</v>
+        <v>-18.6416334910184</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>38.2848020194666</v>
+        <v>38.5686779099132</v>
       </c>
     </row>
     <row r="21">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>131.190713316581</v>
+        <v>131.251642116581</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>109.984560326475</v>
+        <v>109.985191687765</v>
       </c>
     </row>
     <row r="26">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-16.4837106352526</v>
+        <v>-16.4837879537548</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>38.6981418586705</v>
+        <v>38.986811238306</v>
       </c>
     </row>
     <row r="30">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>125.34191602146</v>
+        <v>125.40974242146</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>111.651852195626</v>
+        <v>111.652418900466</v>
       </c>
     </row>
     <row r="35">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.66097016348567</v>
+        <v>-3.66767948690461</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>38.3180390051233</v>
+        <v>38.6069972817394</v>
       </c>
     </row>
     <row r="39">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>127.784645487456</v>
+        <v>127.866267087456</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>111.516315378065</v>
+        <v>111.516835775619</v>
       </c>
     </row>
     <row r="44">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-16.6782438895127</v>
+        <v>-16.6803924743758</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>38.3119153363611</v>
+        <v>38.6093281306878</v>
       </c>
     </row>
     <row r="48">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>13.375805683597</v>
+        <v>13.3758056835941</v>
       </c>
     </row>
     <row r="50">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>140.603230021216</v>
+        <v>140.675654821216</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>114.215027605093</v>
+        <v>114.215518431823</v>
       </c>
     </row>
     <row r="53">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-23.3876597923587</v>
+        <v>-23.385142108394</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>38.3418061540234</v>
+        <v>38.6354166732404</v>
       </c>
     </row>
     <row r="57">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>13.0644704936213</v>
+        <v>13.064470493658</v>
       </c>
     </row>
     <row r="59">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>135.257998934608</v>
+        <v>135.331573334608</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>115.950382662577</v>
+        <v>115.950844571418</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>33.4922884448078</v>
+        <v>33.4923806676535</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-24.8629912124501</v>
+        <v>-24.8637747220734</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>38.8354219137542</v>
+        <v>39.1258638799732</v>
       </c>
     </row>
     <row r="66">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>13.199810883907</v>
+        <v>13.1998108840003</v>
       </c>
     </row>
     <row r="68">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>137.630606985982</v>
+        <v>137.715677385982</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>117.888294248882</v>
+        <v>117.888715454354</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>34.1196610664921</v>
+        <v>34.1198761376909</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-16.4022814466065</v>
+        <v>-16.4004258029708</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>38.1597078573539</v>
+        <v>38.4497359051979</v>
       </c>
     </row>
     <row r="75">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>13.1657751026841</v>
+        <v>13.165775102636</v>
       </c>
     </row>
     <row r="77">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>138.882211241358</v>
+        <v>138.955785641358</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>122.306962532429</v>
+        <v>122.307347320234</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>35.2083558130211</v>
+        <v>35.2087219296949</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-13.8293812040804</v>
+        <v>-13.8298088470127</v>
       </c>
     </row>
     <row r="82">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>38.6305735254011</v>
+        <v>38.9167088990658</v>
       </c>
     </row>
     <row r="84">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>12.1145261164884</v>
+        <v>12.1145261165159</v>
       </c>
     </row>
     <row r="86">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>133.46093136849</v>
+        <v>133.54715136849</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>123.872347259201</v>
+        <v>123.872744612696</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>35.9984048456962</v>
+        <v>35.9989956196113</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-23.1222799915032</v>
+        <v>-23.1195763005049</v>
       </c>
     </row>
     <row r="91">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>37.4302069530592</v>
+        <v>37.7013922303518</v>
       </c>
     </row>
     <row r="93">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>144.87356471559</v>
+        <v>144.96323351559</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>123.953701286186</v>
+        <v>123.95408031039</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>38.2402008663865</v>
+        <v>38.2404729074286</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-20.2230265354052</v>
+        <v>-20.2263197040275</v>
       </c>
     </row>
     <row r="100">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>37.0397021630064</v>
+        <v>37.3074171779522</v>
       </c>
     </row>
     <row r="102">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>143.396700074067</v>
+        <v>143.470274474067</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>125.71373051589</v>
+        <v>125.715209112537</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>40.5864760507719</v>
+        <v>40.5877765971389</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-30.1677842892136</v>
+        <v>-30.1684114818094</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>25.530189401334</v>
+        <v>25.533110122053</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>36.5172008833715</v>
+        <v>36.7931343869682</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>82.7789801259232</v>
+        <v>82.8090627798544</v>
       </c>
     </row>
     <row r="112">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>154.420636011961</v>
+        <v>154.480415211961</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>128.109859638955</v>
+        <v>128.113306128478</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>41.4044191645831</v>
+        <v>41.4064405967432</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-34.4635886658126</v>
+        <v>-34.4632469959296</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>24.6984478843245</v>
+        <v>24.7049346528206</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>36.3599917660409</v>
+        <v>36.5881265420421</v>
       </c>
     </row>
     <row r="120">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>159.524206371438</v>
+        <v>159.572489571438</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>128.24814521888</v>
+        <v>128.253341029492</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>43.4576233192409</v>
+        <v>43.4604837231241</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-26.6227899171197</v>
+        <v>-26.6227368121126</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>24.5499734714395</v>
+        <v>24.5592328908964</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>35.6524119997347</v>
+        <v>35.9226060633418</v>
       </c>
     </row>
     <row r="129">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>161.375889300268</v>
+        <v>161.414975700267</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>129.937103718189</v>
+        <v>129.944688117572</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>46.5059014807513</v>
+        <v>46.5098132058774</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-32.8780201424123</v>
+        <v>-32.8790670476432</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>23.8909863979844</v>
+        <v>23.9061165763963</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>35.028378263896</v>
+        <v>35.3020234810144</v>
       </c>
     </row>
     <row r="138">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>159.889740502344</v>
+        <v>159.921929302344</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>128.358108353751</v>
+        <v>128.364190345867</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>47.1321336969518</v>
+        <v>47.134844660707</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-33.6850339896298</v>
+        <v>-33.6842165318077</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>24.0524613783415</v>
+        <v>24.0693758973375</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>34.3649235426164</v>
+        <v>34.6345671610984</v>
       </c>
     </row>
     <row r="147">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>162.147165050042</v>
+        <v>162.173605850042</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>129.589668977617</v>
+        <v>129.596687153663</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>43.6070062289894</v>
+        <v>43.6065174773137</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-34.3570060169651</v>
+        <v>-34.3573387063932</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>23.4411297888902</v>
+        <v>23.4609128957818</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>35.0411337217077</v>
+        <v>35.3098979699078</v>
       </c>
     </row>
     <row r="156">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>9.76458646478758</v>
+        <v>9.76458646478759</v>
       </c>
     </row>
     <row r="158">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>159.116313850401</v>
+        <v>159.138156250401</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>129.627248128461</v>
+        <v>129.631143149273</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>43.6616471534845</v>
+        <v>43.6609662378644</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-11.8725011548786</v>
+        <v>-11.8825400551244</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>23.0304487154045</v>
+        <v>23.0503610250674</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>34.1538995547101</v>
+        <v>34.4256129831148</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>92.3854535538824</v>
+        <v>92.3900606558766</v>
       </c>
     </row>
     <row r="166">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>156.039484977448</v>
+        <v>156.056728977448</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>122.798137510004</v>
+        <v>122.799380070875</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>41.0955391144322</v>
+        <v>41.0946540015789</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-30.0076997873314</v>
+        <v>-30.0205355104067</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>22.4237676222989</v>
+        <v>22.4447842392738</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>33.4437901606821</v>
+        <v>33.7113611776022</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>93.3678288591956</v>
+        <v>93.337850350266</v>
       </c>
     </row>
     <row r="175">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>134.060774445109</v>
+        <v>134.074569645109</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>117.26336858581</v>
+        <v>117.262539168303</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>35.7351750570878</v>
+        <v>35.7341881823024</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-33.1332689632694</v>
+        <v>-33.1407776011334</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>22.5680101513171</v>
+        <v>22.5880844381702</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>32.6337428692164</v>
+        <v>32.9159188870956</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>96.822464436814</v>
+        <v>96.7891709623614</v>
       </c>
     </row>
     <row r="184">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>137.466729983995</v>
+        <v>137.478225983995</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>115.902443416876</v>
+        <v>115.90174702224</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>36.5907806457984</v>
+        <v>36.5938853895862</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-39.6836343100153</v>
+        <v>-39.6868792737537</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>22.3711745066125</v>
+        <v>22.4931224631896</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>33.1220266718782</v>
+        <v>33.3911184480899</v>
       </c>
     </row>
     <row r="192">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>133.361158966933</v>
+        <v>133.372654966933</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>114.905922670436</v>
+        <v>114.894474162107</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>36.3464786289807</v>
+        <v>36.3451301465486</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-32.6567017754512</v>
+        <v>-32.6722264495019</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>21.7116494046494</v>
+        <v>21.8284141470439</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>33.5520464806628</v>
+        <v>33.7762955879814</v>
       </c>
     </row>
     <row r="201">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>128.307110843906</v>
+        <v>128.318606843906</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>107.525358923976</v>
+        <v>107.511086403514</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>33.2262133902888</v>
+        <v>33.2247061747501</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-23.6109446370503</v>
+        <v>-23.6427958854577</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>21.8277847222801</v>
+        <v>21.944048638014</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>32.8477916944684</v>
+        <v>33.0612285193548</v>
       </c>
     </row>
     <row r="210">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>109.131013621722</v>
+        <v>109.142509621722</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>104.429778594431</v>
+        <v>104.413726678887</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>31.7587608081444</v>
+        <v>31.7568356797796</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-39.6570307836883</v>
+        <v>-39.6613995611311</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>20.413415925129</v>
+        <v>20.5272952202622</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>32.4218044708492</v>
+        <v>32.6428963959348</v>
       </c>
     </row>
     <row r="219">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>100.492530500286</v>
+        <v>100.504026500286</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>109.286841597599</v>
+        <v>109.256536027113</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>30.9959620509346</v>
+        <v>31.395340153566</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-40.234932708859</v>
+        <v>-40.2384650455966</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>20.1965575978771</v>
+        <v>20.2953290522063</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>32.4553015592492</v>
+        <v>32.6702615376999</v>
       </c>
     </row>
     <row r="228">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>106.052494344789</v>
+        <v>106.063990344789</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>106.715615599978</v>
+        <v>106.678323279104</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>29.0936642202393</v>
+        <v>29.522308242191</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-41.9353013806844</v>
+        <v>-41.8426879779192</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>20.3343926013556</v>
+        <v>20.4363642599747</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>33.5632490828275</v>
+        <v>33.8037092199008</v>
       </c>
     </row>
     <row r="237">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>104.679452310107</v>
+        <v>104.690948310107</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>105.618649054962</v>
+        <v>105.588494651453</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>28.4700080827856</v>
+        <v>28.9490114074382</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-40.912875507389</v>
+        <v>-43.9746075001715</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>20.0107037928272</v>
+        <v>20.1141922927384</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>32.7170504613672</v>
+        <v>32.9317327878307</v>
       </c>
     </row>
     <row r="246">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>7.88267669216586</v>
+        <v>7.88267669222688</v>
       </c>
     </row>
     <row r="248">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>104.808369937765</v>
+        <v>104.819865937765</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>101.542738859848</v>
+        <v>101.506492089873</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>28.0055497153499</v>
+        <v>28.4695419451815</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-20.4267984276222</v>
+        <v>-26.458831375895</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>19.9078063007665</v>
+        <v>20.0152772131534</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>32.507123876569</v>
+        <v>32.7476518098671</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>83.8733538528653</v>
+        <v>83.8733538528652</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>7.44948709552295</v>
+        <v>7.44948709548403</v>
       </c>
     </row>
     <row r="257">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>95.8272471851265</v>
+        <v>95.8387431851265</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>105.134862490465</v>
+        <v>105.100241823397</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>28.6082637575789</v>
+        <v>29.0663852149728</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-41.900104901895</v>
+        <v>-49.569909296448</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>19.8933761070268</v>
+        <v>20.0029969568582</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>32.3137002707214</v>
+        <v>32.5626105860081</v>
       </c>
     </row>
     <row r="264">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>6.9644866807619</v>
+        <v>6.96448668084621</v>
       </c>
     </row>
     <row r="266">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>91.6930223813945</v>
+        <v>91.7045183813945</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>106.346562261904</v>
+        <v>106.295274105416</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>27.3297706877876</v>
+        <v>27.7693462928403</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-37.7024362361418</v>
+        <v>-47.6407721930218</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>19.6593513630732</v>
+        <v>19.7878395177357</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>33.533900528883</v>
+        <v>33.7924457393316</v>
       </c>
     </row>
     <row r="273">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>6.19335117140899</v>
+        <v>6.19335117146757</v>
       </c>
     </row>
     <row r="275">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>81.6344928369613</v>
+        <v>81.6459888369613</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>86.561029455507</v>
+        <v>86.5226584868758</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>24.2896208244857</v>
+        <v>24.6676841188157</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-27.4991280462073</v>
+        <v>-39.7914112030662</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>20.4582779622014</v>
+        <v>20.5760530436093</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>32.8621725037812</v>
+        <v>33.0990396128013</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>82.5937222529189</v>
+        <v>82.5937676953717</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>5.65576894044588</v>
+        <v>5.65576894058527</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>54.5606459327874</v>
+        <v>54.5689054803019</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>86.4278717602168</v>
+        <v>86.4401672341962</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>102.92618079712</v>
+        <v>102.867298681573</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>25.3002350230566</v>
+        <v>25.6951481068212</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-24.7870913091647</v>
+        <v>-38.0570984636151</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>20.2154418744557</v>
+        <v>20.3562653942104</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>30.763811193582</v>
+        <v>30.9907840359743</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>73.4525831197895</v>
+        <v>73.4316690733248</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>5.05135108604485</v>
+        <v>5.05143461126835</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>54.7279667765248</v>
+        <v>54.7415123926499</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>94.8711705689916</v>
+        <v>94.8835511287613</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>109.774380081746</v>
+        <v>108.953642078507</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>23.6199150857726</v>
+        <v>23.9082974300041</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-21.1992894616807</v>
+        <v>-39.2333478878034</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>20.051598958977</v>
+        <v>20.1597755868347</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>32.2565411323889</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>69.2751283631848</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>4.52970389552267</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>50.4889116222142</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>75.5137872671575</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>108.993828798395</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>22.593079322718</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-53.588833676387</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>20.2361017965151</v>
       </c>
     </row>
   </sheetData>
